--- a/Varify_Product/not_found_products.xlsx
+++ b/Varify_Product/not_found_products.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="252">
   <si>
     <t>old_product_code</t>
   </si>
@@ -22,28 +22,754 @@
     <t>timestamp</t>
   </si>
   <si>
-    <t>NMA01-H03-GT12002400x15</t>
-  </si>
-  <si>
-    <t>NMA01-120xPW154237/PW200G</t>
-  </si>
-  <si>
-    <t>NFG02-264-0017</t>
-  </si>
-  <si>
-    <t>20251128_164832</t>
-  </si>
-  <si>
-    <t>20251128_164836</t>
-  </si>
-  <si>
-    <t>20251128_164902</t>
-  </si>
-  <si>
-    <t>20251128_164950</t>
-  </si>
-  <si>
-    <t>20251128_165005</t>
+    <t>PUK_PVC_#8</t>
+  </si>
+  <si>
+    <t>65</t>
+  </si>
+  <si>
+    <t>67</t>
+  </si>
+  <si>
+    <t>76</t>
+  </si>
+  <si>
+    <t>85</t>
+  </si>
+  <si>
+    <t>86</t>
+  </si>
+  <si>
+    <t>87</t>
+  </si>
+  <si>
+    <t>96</t>
+  </si>
+  <si>
+    <t>119</t>
+  </si>
+  <si>
+    <t>219</t>
+  </si>
+  <si>
+    <t>241</t>
+  </si>
+  <si>
+    <t>234</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>164</t>
+  </si>
+  <si>
+    <t>240</t>
+  </si>
+  <si>
+    <t>246</t>
+  </si>
+  <si>
+    <t>116</t>
+  </si>
+  <si>
+    <t>248</t>
+  </si>
+  <si>
+    <t>250</t>
+  </si>
+  <si>
+    <t>251</t>
+  </si>
+  <si>
+    <t>254</t>
+  </si>
+  <si>
+    <t>255</t>
+  </si>
+  <si>
+    <t>256</t>
+  </si>
+  <si>
+    <t>258</t>
+  </si>
+  <si>
+    <t>260</t>
+  </si>
+  <si>
+    <t>218</t>
+  </si>
+  <si>
+    <t>69</t>
+  </si>
+  <si>
+    <t>224</t>
+  </si>
+  <si>
+    <t>288</t>
+  </si>
+  <si>
+    <t>276</t>
+  </si>
+  <si>
+    <t>210</t>
+  </si>
+  <si>
+    <t>291</t>
+  </si>
+  <si>
+    <t>292</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>221</t>
+  </si>
+  <si>
+    <t>70</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>239</t>
+  </si>
+  <si>
+    <t>SSP 311</t>
+  </si>
+  <si>
+    <t>SSP 46</t>
+  </si>
+  <si>
+    <t>SSP 322</t>
+  </si>
+  <si>
+    <t>SSP 72</t>
+  </si>
+  <si>
+    <t>SSP 78</t>
+  </si>
+  <si>
+    <t>SSP 222</t>
+  </si>
+  <si>
+    <t>SSP 59</t>
+  </si>
+  <si>
+    <t>SSP 328</t>
+  </si>
+  <si>
+    <t>SSP 106</t>
+  </si>
+  <si>
+    <t>SSP 288</t>
+  </si>
+  <si>
+    <t>SSP 66</t>
+  </si>
+  <si>
+    <t>SSP 325</t>
+  </si>
+  <si>
+    <t>SSP 249</t>
+  </si>
+  <si>
+    <t>SSP 257</t>
+  </si>
+  <si>
+    <t>SSP 234</t>
+  </si>
+  <si>
+    <t>SSP 356</t>
+  </si>
+  <si>
+    <t>SSP 259</t>
+  </si>
+  <si>
+    <t>SSP 337</t>
+  </si>
+  <si>
+    <t>SSP 37</t>
+  </si>
+  <si>
+    <t>SSP 114</t>
+  </si>
+  <si>
+    <t>SSP 261</t>
+  </si>
+  <si>
+    <t>SSP 15</t>
+  </si>
+  <si>
+    <t>SSP 128</t>
+  </si>
+  <si>
+    <t>SSP 318</t>
+  </si>
+  <si>
+    <t>SSP 359</t>
+  </si>
+  <si>
+    <t>SSP 358</t>
+  </si>
+  <si>
+    <t>SSP 357</t>
+  </si>
+  <si>
+    <t>SSP 215</t>
+  </si>
+  <si>
+    <t>SSP 223</t>
+  </si>
+  <si>
+    <t>SSP 75</t>
+  </si>
+  <si>
+    <t>SSP 105</t>
+  </si>
+  <si>
+    <t>SSP 40</t>
+  </si>
+  <si>
+    <t>SSP 94</t>
+  </si>
+  <si>
+    <t>SSP 14</t>
+  </si>
+  <si>
+    <t>SSP 217</t>
+  </si>
+  <si>
+    <t>SSP 347</t>
+  </si>
+  <si>
+    <t>SSP 213</t>
+  </si>
+  <si>
+    <t>SSP 220</t>
+  </si>
+  <si>
+    <t>SSP 364</t>
+  </si>
+  <si>
+    <t>SSP 221</t>
+  </si>
+  <si>
+    <t>SSP 55</t>
+  </si>
+  <si>
+    <t>SSP 98</t>
+  </si>
+  <si>
+    <t>SSP 403</t>
+  </si>
+  <si>
+    <t>SSP 20</t>
+  </si>
+  <si>
+    <t>SSP 21</t>
+  </si>
+  <si>
+    <t>SSP 173</t>
+  </si>
+  <si>
+    <t>SSP 89</t>
+  </si>
+  <si>
+    <t>SSP 380</t>
+  </si>
+  <si>
+    <t>SSP 395</t>
+  </si>
+  <si>
+    <t>SSP 396</t>
+  </si>
+  <si>
+    <t>SSP 402</t>
+  </si>
+  <si>
+    <t>SSP 73</t>
+  </si>
+  <si>
+    <t>SSP 286</t>
+  </si>
+  <si>
+    <t>SSP 287</t>
+  </si>
+  <si>
+    <t>SSP 212</t>
+  </si>
+  <si>
+    <t>SSP 117</t>
+  </si>
+  <si>
+    <t>SSP 316</t>
+  </si>
+  <si>
+    <t>SSP 68</t>
+  </si>
+  <si>
+    <t>SSP 323</t>
+  </si>
+  <si>
+    <t>SSP 113</t>
+  </si>
+  <si>
+    <t>SSP 233</t>
+  </si>
+  <si>
+    <t>SSP 93</t>
+  </si>
+  <si>
+    <t>SSP 35</t>
+  </si>
+  <si>
+    <t>SSP 18</t>
+  </si>
+  <si>
+    <t>SSP 52</t>
+  </si>
+  <si>
+    <t>SSP 26</t>
+  </si>
+  <si>
+    <t>SSP 5</t>
+  </si>
+  <si>
+    <t>SSP 6</t>
+  </si>
+  <si>
+    <t>SSP 406</t>
+  </si>
+  <si>
+    <t>SSP 332</t>
+  </si>
+  <si>
+    <t>SSP 27</t>
+  </si>
+  <si>
+    <t>SSP 56</t>
+  </si>
+  <si>
+    <t>SSP 47</t>
+  </si>
+  <si>
+    <t>SSP 50</t>
+  </si>
+  <si>
+    <t>SSP 17</t>
+  </si>
+  <si>
+    <t>SSP 11</t>
+  </si>
+  <si>
+    <t>SSP 30</t>
+  </si>
+  <si>
+    <t>SSP 107</t>
+  </si>
+  <si>
+    <t>SSP 329</t>
+  </si>
+  <si>
+    <t>SSP 352</t>
+  </si>
+  <si>
+    <t>SSP 353</t>
+  </si>
+  <si>
+    <t>SSP 354</t>
+  </si>
+  <si>
+    <t>SSP 216</t>
+  </si>
+  <si>
+    <t>SSP 81</t>
+  </si>
+  <si>
+    <t>SSP 340</t>
+  </si>
+  <si>
+    <t>SSP 416</t>
+  </si>
+  <si>
+    <t>SSP 95</t>
+  </si>
+  <si>
+    <t>SSP 39</t>
+  </si>
+  <si>
+    <t>SSP 71</t>
+  </si>
+  <si>
+    <t>SSP 205</t>
+  </si>
+  <si>
+    <t>SSP 132</t>
+  </si>
+  <si>
+    <t>SSP 341</t>
+  </si>
+  <si>
+    <t>SSP 342</t>
+  </si>
+  <si>
+    <t>SSP 432</t>
+  </si>
+  <si>
+    <t>NRSF8-801-S001-022</t>
+  </si>
+  <si>
+    <t>SSP 372</t>
+  </si>
+  <si>
+    <t>SSP 373</t>
+  </si>
+  <si>
+    <t>SSP 374</t>
+  </si>
+  <si>
+    <t>SSP 375</t>
+  </si>
+  <si>
+    <t>SSP 376</t>
+  </si>
+  <si>
+    <t>SSP 377</t>
+  </si>
+  <si>
+    <t>SSP 12</t>
+  </si>
+  <si>
+    <t>SSP 378</t>
+  </si>
+  <si>
+    <t>SSP 379</t>
+  </si>
+  <si>
+    <t>SSP 382</t>
+  </si>
+  <si>
+    <t>SSP 394</t>
+  </si>
+  <si>
+    <t>SSP 129</t>
+  </si>
+  <si>
+    <t>SSP 41</t>
+  </si>
+  <si>
+    <t>SSP 151</t>
+  </si>
+  <si>
+    <t>SSP 435</t>
+  </si>
+  <si>
+    <t>SSP 227</t>
+  </si>
+  <si>
+    <t>SSP 434</t>
+  </si>
+  <si>
+    <t>SSP 74</t>
+  </si>
+  <si>
+    <t>SSP 33</t>
+  </si>
+  <si>
+    <t>SSP 13</t>
+  </si>
+  <si>
+    <t>SSP 133</t>
+  </si>
+  <si>
+    <t>SSP 1</t>
+  </si>
+  <si>
+    <t>SSP 334</t>
+  </si>
+  <si>
+    <t>SSP 335</t>
+  </si>
+  <si>
+    <t>SSP 336</t>
+  </si>
+  <si>
+    <t>SSP 211</t>
+  </si>
+  <si>
+    <t>SSP 115</t>
+  </si>
+  <si>
+    <t>SSP 38</t>
+  </si>
+  <si>
+    <t>SSP 45</t>
+  </si>
+  <si>
+    <t>20251129_094130</t>
+  </si>
+  <si>
+    <t>20251129_094131</t>
+  </si>
+  <si>
+    <t>20251129_094132</t>
+  </si>
+  <si>
+    <t>20251129_094133</t>
+  </si>
+  <si>
+    <t>20251129_094134</t>
+  </si>
+  <si>
+    <t>20251129_094135</t>
+  </si>
+  <si>
+    <t>20251129_094136</t>
+  </si>
+  <si>
+    <t>20251129_094147</t>
+  </si>
+  <si>
+    <t>20251129_094148</t>
+  </si>
+  <si>
+    <t>20251129_094200</t>
+  </si>
+  <si>
+    <t>20251129_094202</t>
+  </si>
+  <si>
+    <t>20251129_094211</t>
+  </si>
+  <si>
+    <t>20251129_094223</t>
+  </si>
+  <si>
+    <t>20251129_094225</t>
+  </si>
+  <si>
+    <t>20251129_094227</t>
+  </si>
+  <si>
+    <t>20251129_094228</t>
+  </si>
+  <si>
+    <t>20251129_094229</t>
+  </si>
+  <si>
+    <t>20251129_094239</t>
+  </si>
+  <si>
+    <t>20251129_094245</t>
+  </si>
+  <si>
+    <t>20251129_094247</t>
+  </si>
+  <si>
+    <t>20251129_094254</t>
+  </si>
+  <si>
+    <t>20251129_094255</t>
+  </si>
+  <si>
+    <t>20251129_094256</t>
+  </si>
+  <si>
+    <t>20251129_094305</t>
+  </si>
+  <si>
+    <t>20251129_094306</t>
+  </si>
+  <si>
+    <t>20251129_094307</t>
+  </si>
+  <si>
+    <t>20251129_094322</t>
+  </si>
+  <si>
+    <t>20251129_094323</t>
+  </si>
+  <si>
+    <t>20251129_094324</t>
+  </si>
+  <si>
+    <t>20251129_094325</t>
+  </si>
+  <si>
+    <t>20251129_094326</t>
+  </si>
+  <si>
+    <t>20251129_094327</t>
+  </si>
+  <si>
+    <t>20251129_094328</t>
+  </si>
+  <si>
+    <t>20251129_094329</t>
+  </si>
+  <si>
+    <t>20251129_094330</t>
+  </si>
+  <si>
+    <t>20251129_094331</t>
+  </si>
+  <si>
+    <t>20251129_094332</t>
+  </si>
+  <si>
+    <t>20251129_094333</t>
+  </si>
+  <si>
+    <t>20251129_094334</t>
+  </si>
+  <si>
+    <t>20251129_094335</t>
+  </si>
+  <si>
+    <t>20251129_094336</t>
+  </si>
+  <si>
+    <t>20251129_094337</t>
+  </si>
+  <si>
+    <t>20251129_094338</t>
+  </si>
+  <si>
+    <t>20251129_094339</t>
+  </si>
+  <si>
+    <t>20251129_094340</t>
+  </si>
+  <si>
+    <t>20251129_094341</t>
+  </si>
+  <si>
+    <t>20251129_094342</t>
+  </si>
+  <si>
+    <t>20251129_094343</t>
+  </si>
+  <si>
+    <t>20251129_094344</t>
+  </si>
+  <si>
+    <t>20251129_094345</t>
+  </si>
+  <si>
+    <t>20251129_094346</t>
+  </si>
+  <si>
+    <t>20251129_094347</t>
+  </si>
+  <si>
+    <t>20251129_094349</t>
+  </si>
+  <si>
+    <t>20251129_094350</t>
+  </si>
+  <si>
+    <t>20251129_094351</t>
+  </si>
+  <si>
+    <t>20251129_094352</t>
+  </si>
+  <si>
+    <t>20251129_094353</t>
+  </si>
+  <si>
+    <t>20251129_094354</t>
+  </si>
+  <si>
+    <t>20251129_094355</t>
+  </si>
+  <si>
+    <t>20251129_094356</t>
+  </si>
+  <si>
+    <t>20251129_094357</t>
+  </si>
+  <si>
+    <t>20251129_094358</t>
+  </si>
+  <si>
+    <t>20251129_094359</t>
+  </si>
+  <si>
+    <t>20251129_094400</t>
+  </si>
+  <si>
+    <t>20251129_094401</t>
+  </si>
+  <si>
+    <t>20251129_094402</t>
+  </si>
+  <si>
+    <t>20251129_094403</t>
+  </si>
+  <si>
+    <t>20251129_094404</t>
+  </si>
+  <si>
+    <t>20251129_094405</t>
+  </si>
+  <si>
+    <t>20251129_094406</t>
+  </si>
+  <si>
+    <t>20251129_094407</t>
+  </si>
+  <si>
+    <t>20251129_094408</t>
+  </si>
+  <si>
+    <t>20251129_094409</t>
+  </si>
+  <si>
+    <t>20251129_094410</t>
+  </si>
+  <si>
+    <t>20251129_094411</t>
+  </si>
+  <si>
+    <t>20251129_094412</t>
+  </si>
+  <si>
+    <t>20251129_094413</t>
+  </si>
+  <si>
+    <t>20251129_094414</t>
+  </si>
+  <si>
+    <t>20251129_094415</t>
+  </si>
+  <si>
+    <t>20251129_094416</t>
+  </si>
+  <si>
+    <t>20251129_094417</t>
+  </si>
+  <si>
+    <t>20251129_094418</t>
+  </si>
+  <si>
+    <t>20251129_094419</t>
+  </si>
+  <si>
+    <t>20251129_094420</t>
+  </si>
+  <si>
+    <t>20251129_094421</t>
+  </si>
+  <si>
+    <t>20251129_094422</t>
   </si>
 </sst>
 </file>
@@ -401,7 +1127,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B199"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -420,15 +1146,15 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>166</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>167</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -436,31 +1162,1567 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>167</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>167</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>168</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>14</v>
+      </c>
+      <c r="B19" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>15</v>
+      </c>
+      <c r="B20" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>16</v>
+      </c>
+      <c r="B21" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>12</v>
+      </c>
+      <c r="B22" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>17</v>
+      </c>
+      <c r="B23" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
+        <v>18</v>
+      </c>
+      <c r="B24" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
+        <v>17</v>
+      </c>
+      <c r="B25" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" t="s">
+        <v>19</v>
+      </c>
+      <c r="B26" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" t="s">
+        <v>20</v>
+      </c>
+      <c r="B27" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" t="s">
+        <v>21</v>
+      </c>
+      <c r="B28" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" t="s">
+        <v>22</v>
+      </c>
+      <c r="B29" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" t="s">
+        <v>23</v>
+      </c>
+      <c r="B30" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" t="s">
+        <v>26</v>
+      </c>
+      <c r="B33" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" t="s">
+        <v>27</v>
+      </c>
+      <c r="B34" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" t="s">
+        <v>28</v>
+      </c>
+      <c r="B35" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" t="s">
+        <v>29</v>
+      </c>
+      <c r="B36" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" t="s">
+        <v>30</v>
+      </c>
+      <c r="B37" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" t="s">
+        <v>31</v>
+      </c>
+      <c r="B38" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" t="s">
+        <v>32</v>
+      </c>
+      <c r="B39" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" t="s">
+        <v>33</v>
+      </c>
+      <c r="B40" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" t="s">
+        <v>34</v>
+      </c>
+      <c r="B41" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" t="s">
+        <v>35</v>
+      </c>
+      <c r="B42" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" t="s">
+        <v>36</v>
+      </c>
+      <c r="B43" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" t="s">
+        <v>37</v>
+      </c>
+      <c r="B44" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" t="s">
         <v>2</v>
       </c>
-      <c r="B7" t="s">
-        <v>9</v>
+      <c r="B45" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" t="s">
+        <v>38</v>
+      </c>
+      <c r="B46" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" t="s">
+        <v>39</v>
+      </c>
+      <c r="B47" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" t="s">
+        <v>40</v>
+      </c>
+      <c r="B48" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" t="s">
+        <v>8</v>
+      </c>
+      <c r="B49" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" t="s">
+        <v>10</v>
+      </c>
+      <c r="B50" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" t="s">
+        <v>41</v>
+      </c>
+      <c r="B51" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" t="s">
+        <v>42</v>
+      </c>
+      <c r="B52" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" t="s">
+        <v>43</v>
+      </c>
+      <c r="B53" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" t="s">
+        <v>44</v>
+      </c>
+      <c r="B54" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" t="s">
+        <v>45</v>
+      </c>
+      <c r="B55" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" t="s">
+        <v>46</v>
+      </c>
+      <c r="B56" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" t="s">
+        <v>43</v>
+      </c>
+      <c r="B57" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" t="s">
+        <v>47</v>
+      </c>
+      <c r="B58" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" t="s">
+        <v>48</v>
+      </c>
+      <c r="B59" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" t="s">
+        <v>49</v>
+      </c>
+      <c r="B60" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" t="s">
+        <v>50</v>
+      </c>
+      <c r="B61" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" t="s">
+        <v>51</v>
+      </c>
+      <c r="B62" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" t="s">
+        <v>52</v>
+      </c>
+      <c r="B63" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" t="s">
+        <v>53</v>
+      </c>
+      <c r="B64" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" t="s">
+        <v>54</v>
+      </c>
+      <c r="B65" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" t="s">
+        <v>55</v>
+      </c>
+      <c r="B66" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" t="s">
+        <v>53</v>
+      </c>
+      <c r="B67" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" t="s">
+        <v>56</v>
+      </c>
+      <c r="B68" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69" t="s">
+        <v>57</v>
+      </c>
+      <c r="B69" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70" t="s">
+        <v>58</v>
+      </c>
+      <c r="B70" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71" t="s">
+        <v>59</v>
+      </c>
+      <c r="B71" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72" t="s">
+        <v>60</v>
+      </c>
+      <c r="B72" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73" t="s">
+        <v>61</v>
+      </c>
+      <c r="B73" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74" t="s">
+        <v>62</v>
+      </c>
+      <c r="B74" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75" t="s">
+        <v>63</v>
+      </c>
+      <c r="B75" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76" t="s">
+        <v>64</v>
+      </c>
+      <c r="B76" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77" t="s">
+        <v>65</v>
+      </c>
+      <c r="B77" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
+      <c r="A78" t="s">
+        <v>66</v>
+      </c>
+      <c r="B78" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
+      <c r="A79" t="s">
+        <v>67</v>
+      </c>
+      <c r="B79" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
+      <c r="A80" t="s">
+        <v>68</v>
+      </c>
+      <c r="B80" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2">
+      <c r="A81" t="s">
+        <v>69</v>
+      </c>
+      <c r="B81" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2">
+      <c r="A82" t="s">
+        <v>70</v>
+      </c>
+      <c r="B82" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2">
+      <c r="A83" t="s">
+        <v>71</v>
+      </c>
+      <c r="B83" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2">
+      <c r="A84" t="s">
+        <v>72</v>
+      </c>
+      <c r="B84" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2">
+      <c r="A85" t="s">
+        <v>73</v>
+      </c>
+      <c r="B85" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2">
+      <c r="A86" t="s">
+        <v>74</v>
+      </c>
+      <c r="B86" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2">
+      <c r="A87" t="s">
+        <v>75</v>
+      </c>
+      <c r="B87" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2">
+      <c r="A88" t="s">
+        <v>76</v>
+      </c>
+      <c r="B88" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2">
+      <c r="A89" t="s">
+        <v>77</v>
+      </c>
+      <c r="B89" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2">
+      <c r="A90" t="s">
+        <v>78</v>
+      </c>
+      <c r="B90" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2">
+      <c r="A91" t="s">
+        <v>79</v>
+      </c>
+      <c r="B91" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2">
+      <c r="A92" t="s">
+        <v>43</v>
+      </c>
+      <c r="B92" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2">
+      <c r="A93" t="s">
+        <v>80</v>
+      </c>
+      <c r="B93" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2">
+      <c r="A94" t="s">
+        <v>81</v>
+      </c>
+      <c r="B94" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2">
+      <c r="A95" t="s">
+        <v>81</v>
+      </c>
+      <c r="B95" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2">
+      <c r="A96" t="s">
+        <v>82</v>
+      </c>
+      <c r="B96" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2">
+      <c r="A97" t="s">
+        <v>83</v>
+      </c>
+      <c r="B97" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2">
+      <c r="A98" t="s">
+        <v>84</v>
+      </c>
+      <c r="B98" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2">
+      <c r="A99" t="s">
+        <v>85</v>
+      </c>
+      <c r="B99" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2">
+      <c r="A100" t="s">
+        <v>86</v>
+      </c>
+      <c r="B100" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2">
+      <c r="A101" t="s">
+        <v>87</v>
+      </c>
+      <c r="B101" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2">
+      <c r="A102" t="s">
+        <v>88</v>
+      </c>
+      <c r="B102" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2">
+      <c r="A103" t="s">
+        <v>89</v>
+      </c>
+      <c r="B103" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2">
+      <c r="A104" t="s">
+        <v>90</v>
+      </c>
+      <c r="B104" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2">
+      <c r="A105" t="s">
+        <v>91</v>
+      </c>
+      <c r="B105" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2">
+      <c r="A106" t="s">
+        <v>92</v>
+      </c>
+      <c r="B106" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2">
+      <c r="A107" t="s">
+        <v>93</v>
+      </c>
+      <c r="B107" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2">
+      <c r="A108" t="s">
+        <v>94</v>
+      </c>
+      <c r="B108" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2">
+      <c r="A109" t="s">
+        <v>95</v>
+      </c>
+      <c r="B109" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2">
+      <c r="A110" t="s">
+        <v>96</v>
+      </c>
+      <c r="B110" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2">
+      <c r="A111" t="s">
+        <v>78</v>
+      </c>
+      <c r="B111" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2">
+      <c r="A112" t="s">
+        <v>97</v>
+      </c>
+      <c r="B112" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2">
+      <c r="A113" t="s">
+        <v>98</v>
+      </c>
+      <c r="B113" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2">
+      <c r="A114" t="s">
+        <v>99</v>
+      </c>
+      <c r="B114" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2">
+      <c r="A115" t="s">
+        <v>100</v>
+      </c>
+      <c r="B115" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2">
+      <c r="A116" t="s">
+        <v>101</v>
+      </c>
+      <c r="B116" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2">
+      <c r="A117" t="s">
+        <v>102</v>
+      </c>
+      <c r="B117" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2">
+      <c r="A118" t="s">
+        <v>103</v>
+      </c>
+      <c r="B118" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2">
+      <c r="A119" t="s">
+        <v>104</v>
+      </c>
+      <c r="B119" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2">
+      <c r="A120" t="s">
+        <v>105</v>
+      </c>
+      <c r="B120" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2">
+      <c r="A121" t="s">
+        <v>106</v>
+      </c>
+      <c r="B121" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2">
+      <c r="A122" t="s">
+        <v>107</v>
+      </c>
+      <c r="B122" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2">
+      <c r="A123" t="s">
+        <v>108</v>
+      </c>
+      <c r="B123" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2">
+      <c r="A124" t="s">
+        <v>109</v>
+      </c>
+      <c r="B124" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2">
+      <c r="A125" t="s">
+        <v>110</v>
+      </c>
+      <c r="B125" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2">
+      <c r="A126" t="s">
+        <v>111</v>
+      </c>
+      <c r="B126" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2">
+      <c r="A127" t="s">
+        <v>112</v>
+      </c>
+      <c r="B127" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2">
+      <c r="A128" t="s">
+        <v>113</v>
+      </c>
+      <c r="B128" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2">
+      <c r="A129" t="s">
+        <v>114</v>
+      </c>
+      <c r="B129" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2">
+      <c r="A130" t="s">
+        <v>115</v>
+      </c>
+      <c r="B130" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2">
+      <c r="A131" t="s">
+        <v>116</v>
+      </c>
+      <c r="B131" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2">
+      <c r="A132" t="s">
+        <v>117</v>
+      </c>
+      <c r="B132" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2">
+      <c r="A133" t="s">
+        <v>118</v>
+      </c>
+      <c r="B133" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2">
+      <c r="A134" t="s">
+        <v>99</v>
+      </c>
+      <c r="B134" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2">
+      <c r="A135" t="s">
+        <v>119</v>
+      </c>
+      <c r="B135" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2">
+      <c r="A136" t="s">
+        <v>120</v>
+      </c>
+      <c r="B136" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2">
+      <c r="A137" t="s">
+        <v>121</v>
+      </c>
+      <c r="B137" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2">
+      <c r="A138" t="s">
+        <v>122</v>
+      </c>
+      <c r="B138" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2">
+      <c r="A139" t="s">
+        <v>123</v>
+      </c>
+      <c r="B139" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2">
+      <c r="A140" t="s">
+        <v>124</v>
+      </c>
+      <c r="B140" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2">
+      <c r="A141" t="s">
+        <v>125</v>
+      </c>
+      <c r="B141" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2">
+      <c r="A142" t="s">
+        <v>126</v>
+      </c>
+      <c r="B142" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2">
+      <c r="A143" t="s">
+        <v>127</v>
+      </c>
+      <c r="B143" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2">
+      <c r="A144" t="s">
+        <v>128</v>
+      </c>
+      <c r="B144" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2">
+      <c r="A145" t="s">
+        <v>129</v>
+      </c>
+      <c r="B145" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2">
+      <c r="A146" t="s">
+        <v>130</v>
+      </c>
+      <c r="B146" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2">
+      <c r="A147" t="s">
+        <v>131</v>
+      </c>
+      <c r="B147" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2">
+      <c r="A148" t="s">
+        <v>126</v>
+      </c>
+      <c r="B148" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2">
+      <c r="A149" t="s">
+        <v>132</v>
+      </c>
+      <c r="B149" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2">
+      <c r="A150" t="s">
+        <v>133</v>
+      </c>
+      <c r="B150" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2">
+      <c r="A151" t="s">
+        <v>134</v>
+      </c>
+      <c r="B151" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2">
+      <c r="A152" t="s">
+        <v>135</v>
+      </c>
+      <c r="B152" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2">
+      <c r="A153" t="s">
+        <v>136</v>
+      </c>
+      <c r="B153" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2">
+      <c r="A154" t="s">
+        <v>92</v>
+      </c>
+      <c r="B154" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2">
+      <c r="A155" t="s">
+        <v>137</v>
+      </c>
+      <c r="B155" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2">
+      <c r="A156" t="s">
+        <v>138</v>
+      </c>
+      <c r="B156" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2">
+      <c r="A157" t="s">
+        <v>139</v>
+      </c>
+      <c r="B157" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2">
+      <c r="A158" t="s">
+        <v>140</v>
+      </c>
+      <c r="B158" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2">
+      <c r="A159" t="s">
+        <v>141</v>
+      </c>
+      <c r="B159" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2">
+      <c r="A160" t="s">
+        <v>142</v>
+      </c>
+      <c r="B160" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2">
+      <c r="A161" t="s">
+        <v>89</v>
+      </c>
+      <c r="B161" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2">
+      <c r="A162" t="s">
+        <v>117</v>
+      </c>
+      <c r="B162" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2">
+      <c r="A163" t="s">
+        <v>143</v>
+      </c>
+      <c r="B163" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2">
+      <c r="A164" t="s">
+        <v>144</v>
+      </c>
+      <c r="B164" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2">
+      <c r="A165" t="s">
+        <v>145</v>
+      </c>
+      <c r="B165" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2">
+      <c r="A166" t="s">
+        <v>146</v>
+      </c>
+      <c r="B166" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2">
+      <c r="A167" t="s">
+        <v>147</v>
+      </c>
+      <c r="B167" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2">
+      <c r="A168" t="s">
+        <v>148</v>
+      </c>
+      <c r="B168" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2">
+      <c r="A169" t="s">
+        <v>137</v>
+      </c>
+      <c r="B169" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2">
+      <c r="A170" t="s">
+        <v>138</v>
+      </c>
+      <c r="B170" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2">
+      <c r="A171" t="s">
+        <v>139</v>
+      </c>
+      <c r="B171" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2">
+      <c r="A172" t="s">
+        <v>140</v>
+      </c>
+      <c r="B172" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2">
+      <c r="A173" t="s">
+        <v>142</v>
+      </c>
+      <c r="B173" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2">
+      <c r="A174" t="s">
+        <v>144</v>
+      </c>
+      <c r="B174" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2">
+      <c r="A175" t="s">
+        <v>145</v>
+      </c>
+      <c r="B175" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2">
+      <c r="A176" t="s">
+        <v>89</v>
+      </c>
+      <c r="B176" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2">
+      <c r="A177" t="s">
+        <v>146</v>
+      </c>
+      <c r="B177" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2">
+      <c r="A178" t="s">
+        <v>147</v>
+      </c>
+      <c r="B178" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2">
+      <c r="A179" t="s">
+        <v>90</v>
+      </c>
+      <c r="B179" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2">
+      <c r="A180" t="s">
+        <v>91</v>
+      </c>
+      <c r="B180" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2">
+      <c r="A181" t="s">
+        <v>92</v>
+      </c>
+      <c r="B181" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2">
+      <c r="A182" t="s">
+        <v>149</v>
+      </c>
+      <c r="B182" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2">
+      <c r="A183" t="s">
+        <v>150</v>
+      </c>
+      <c r="B183" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2">
+      <c r="A184" t="s">
+        <v>151</v>
+      </c>
+      <c r="B184" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2">
+      <c r="A185" t="s">
+        <v>152</v>
+      </c>
+      <c r="B185" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2">
+      <c r="A186" t="s">
+        <v>153</v>
+      </c>
+      <c r="B186" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2">
+      <c r="A187" t="s">
+        <v>154</v>
+      </c>
+      <c r="B187" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2">
+      <c r="A188" t="s">
+        <v>155</v>
+      </c>
+      <c r="B188" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2">
+      <c r="A189" t="s">
+        <v>156</v>
+      </c>
+      <c r="B189" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2">
+      <c r="A190" t="s">
+        <v>157</v>
+      </c>
+      <c r="B190" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2">
+      <c r="A191" t="s">
+        <v>158</v>
+      </c>
+      <c r="B191" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2">
+      <c r="A192" t="s">
+        <v>159</v>
+      </c>
+      <c r="B192" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2">
+      <c r="A193" t="s">
+        <v>160</v>
+      </c>
+      <c r="B193" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2">
+      <c r="A194" t="s">
+        <v>161</v>
+      </c>
+      <c r="B194" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2">
+      <c r="A195" t="s">
+        <v>162</v>
+      </c>
+      <c r="B195" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2">
+      <c r="A196" t="s">
+        <v>163</v>
+      </c>
+      <c r="B196" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2">
+      <c r="A197" t="s">
+        <v>164</v>
+      </c>
+      <c r="B197" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2">
+      <c r="A198" t="s">
+        <v>165</v>
+      </c>
+      <c r="B198" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2">
+      <c r="A199" t="s">
+        <v>157</v>
+      </c>
+      <c r="B199" t="s">
+        <v>251</v>
       </c>
     </row>
   </sheetData>

--- a/Varify_Product/not_found_products.xlsx
+++ b/Varify_Product/not_found_products.xlsx
@@ -1,108 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
-  <si>
-    <t>old_product_code</t>
-  </si>
-  <si>
-    <t>timestamp</t>
-  </si>
-  <si>
-    <t>SSP00072</t>
-  </si>
-  <si>
-    <t>SSP00328</t>
-  </si>
-  <si>
-    <t>SSP00106</t>
-  </si>
-  <si>
-    <t>SSP00089</t>
-  </si>
-  <si>
-    <t>SSP00035</t>
-  </si>
-  <si>
-    <t>SSP00026</t>
-  </si>
-  <si>
-    <t>SSP00081</t>
-  </si>
-  <si>
-    <t>SSP00071</t>
-  </si>
-  <si>
-    <t>SSP00132</t>
-  </si>
-  <si>
-    <t>NRSF8-801-S001-022</t>
-  </si>
-  <si>
-    <t>20251129_161646</t>
-  </si>
-  <si>
-    <t>20251129_161648</t>
-  </si>
-  <si>
-    <t>20251129_161702</t>
-  </si>
-  <si>
-    <t>20251129_161708</t>
-  </si>
-  <si>
-    <t>20251129_161709</t>
-  </si>
-  <si>
-    <t>20251129_161717</t>
-  </si>
-  <si>
-    <t>20251129_161719</t>
-  </si>
-  <si>
-    <t>20251129_161721</t>
-  </si>
-  <si>
-    <t>20251129_161723</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -117,35 +46,93 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -433,102 +420,44 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>old_product_code</t>
+        </is>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>timestamp</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>2</v>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>HSE0273</t>
+        </is>
       </c>
-      <c r="B2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" t="s">
-        <v>20</v>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>20251226_140815</t>
+        </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>